--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H2">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J2">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N2">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O2">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P2">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q2">
-        <v>4.821171288072222</v>
+        <v>3.087523503302001</v>
       </c>
       <c r="R2">
-        <v>43.39054159265</v>
+        <v>27.787711529718</v>
       </c>
       <c r="S2">
-        <v>0.001854187992327359</v>
+        <v>0.001914343592174019</v>
       </c>
       <c r="T2">
-        <v>0.001854187992327359</v>
+        <v>0.001914343592174019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H3">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J3">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>112.478866</v>
       </c>
       <c r="O3">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P3">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q3">
-        <v>23.64423241246711</v>
+        <v>9.609456949585113</v>
       </c>
       <c r="R3">
-        <v>212.798091712204</v>
+        <v>86.48511254626601</v>
       </c>
       <c r="S3">
-        <v>0.009093402662431419</v>
+        <v>0.005958109247115584</v>
       </c>
       <c r="T3">
-        <v>0.009093402662431417</v>
+        <v>0.005958109247115583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H4">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J4">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N4">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P4">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q4">
-        <v>36.96212310824178</v>
+        <v>13.64479788091156</v>
       </c>
       <c r="R4">
-        <v>332.659107974176</v>
+        <v>122.803180928204</v>
       </c>
       <c r="S4">
-        <v>0.01421536816328954</v>
+        <v>0.008460123902505464</v>
       </c>
       <c r="T4">
-        <v>0.01421536816328954</v>
+        <v>0.008460123902505464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H5">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J5">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N5">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P5">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q5">
-        <v>12.905182217882</v>
+        <v>3.917076951984001</v>
       </c>
       <c r="R5">
-        <v>116.146639960938</v>
+        <v>35.25369256785601</v>
       </c>
       <c r="S5">
-        <v>0.004963240772298175</v>
+        <v>0.002428687961423963</v>
       </c>
       <c r="T5">
-        <v>0.004963240772298174</v>
+        <v>0.002428687961423963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H6">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J6">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N6">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P6">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q6">
-        <v>7.419168687484888</v>
+        <v>2.570357871398334</v>
       </c>
       <c r="R6">
-        <v>66.77251818736399</v>
+        <v>23.133220842585</v>
       </c>
       <c r="S6">
-        <v>0.002853359209082624</v>
+        <v>0.001593687664383151</v>
       </c>
       <c r="T6">
-        <v>0.002853359209082624</v>
+        <v>0.001593687664383151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6306313333333333</v>
+        <v>0.2563003333333334</v>
       </c>
       <c r="H7">
-        <v>1.891894</v>
+        <v>0.7689010000000001</v>
       </c>
       <c r="I7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="J7">
-        <v>0.04752507351852504</v>
+        <v>0.02986826554325775</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N7">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O7">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P7">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q7">
-        <v>37.8205544551689</v>
+        <v>15.34342013846756</v>
       </c>
       <c r="R7">
-        <v>340.38499009652</v>
+        <v>138.090781246208</v>
       </c>
       <c r="S7">
-        <v>0.01454551471909592</v>
+        <v>0.009513313175655569</v>
       </c>
       <c r="T7">
-        <v>0.01454551471909592</v>
+        <v>0.009513313175655567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
         <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J8">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N8">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O8">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P8">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q8">
-        <v>49.65915189462499</v>
+        <v>78.24982646637001</v>
       </c>
       <c r="R8">
-        <v>446.9323670516249</v>
+        <v>704.2484381973302</v>
       </c>
       <c r="S8">
-        <v>0.01909855461472141</v>
+        <v>0.04851689508579338</v>
       </c>
       <c r="T8">
-        <v>0.01909855461472141</v>
+        <v>0.04851689508579337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
         <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J9">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>112.478866</v>
       </c>
       <c r="O9">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P9">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q9">
         <v>243.54092784619</v>
@@ -1013,10 +1013,10 @@
         <v>2191.86835061571</v>
       </c>
       <c r="S9">
-        <v>0.0936640988404361</v>
+        <v>0.1510016082973495</v>
       </c>
       <c r="T9">
-        <v>0.09366409884043608</v>
+        <v>0.1510016082973495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
         <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J10">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N10">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P10">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q10">
-        <v>380.71820644936</v>
+        <v>345.81212586986</v>
       </c>
       <c r="R10">
-        <v>3426.46385804424</v>
+        <v>3112.309132828741</v>
       </c>
       <c r="S10">
-        <v>0.1464214989841358</v>
+        <v>0.214412368536483</v>
       </c>
       <c r="T10">
-        <v>0.1464214989841358</v>
+        <v>0.214412368536483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
         <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J11">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N11">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P11">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q11">
-        <v>132.926288176305</v>
+        <v>99.27392987304002</v>
       </c>
       <c r="R11">
-        <v>1196.336593586745</v>
+        <v>893.4653688573602</v>
       </c>
       <c r="S11">
-        <v>0.05112249963218041</v>
+        <v>0.06155237727555469</v>
       </c>
       <c r="T11">
-        <v>0.05112249963218041</v>
+        <v>0.06155237727555468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
         <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J12">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N12">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P12">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q12">
-        <v>76.41911120128999</v>
+        <v>65.14284253327502</v>
       </c>
       <c r="R12">
-        <v>687.7720008116099</v>
+        <v>586.285582799475</v>
       </c>
       <c r="S12">
-        <v>0.02939024355436642</v>
+        <v>0.04039022959540473</v>
       </c>
       <c r="T12">
-        <v>0.02939024355436642</v>
+        <v>0.04039022959540472</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.495645</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H13">
         <v>19.486935</v>
       </c>
       <c r="I13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270297</v>
       </c>
       <c r="J13">
-        <v>0.4895189786138752</v>
+        <v>0.7569777503270296</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N13">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O13">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P13">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q13">
-        <v>389.5602429797</v>
+        <v>388.8618052467201</v>
       </c>
       <c r="R13">
-        <v>3506.0421868173</v>
+        <v>3499.75624722048</v>
       </c>
       <c r="S13">
-        <v>0.149822082988035</v>
+        <v>0.2411042715364444</v>
       </c>
       <c r="T13">
-        <v>0.149822082988035</v>
+        <v>0.2411042715364444</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H14">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J14">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N14">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O14">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P14">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q14">
-        <v>46.77558590615555</v>
+        <v>21.736386155236</v>
       </c>
       <c r="R14">
-        <v>420.9802731554</v>
+        <v>195.627475397124</v>
       </c>
       <c r="S14">
-        <v>0.01798955576124124</v>
+        <v>0.01347711572358709</v>
       </c>
       <c r="T14">
-        <v>0.01798955576124123</v>
+        <v>0.01347711572358709</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H15">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J15">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>112.478866</v>
       </c>
       <c r="O15">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P15">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q15">
-        <v>229.3991974793938</v>
+        <v>67.6512637960209</v>
       </c>
       <c r="R15">
-        <v>2064.592777314544</v>
+        <v>608.8613741641881</v>
       </c>
       <c r="S15">
-        <v>0.08822529049489616</v>
+        <v>0.04194551497725691</v>
       </c>
       <c r="T15">
-        <v>0.08822529049489615</v>
+        <v>0.0419455149772569</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H16">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J16">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N16">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P16">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q16">
-        <v>358.6109809043484</v>
+        <v>96.06035239325246</v>
       </c>
       <c r="R16">
-        <v>3227.498828139136</v>
+        <v>864.5431715392721</v>
       </c>
       <c r="S16">
-        <v>0.1379192181689641</v>
+        <v>0.05955987699181375</v>
       </c>
       <c r="T16">
-        <v>0.1379192181689641</v>
+        <v>0.05955987699181374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H17">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J17">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N17">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P17">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q17">
-        <v>125.207635945352</v>
+        <v>27.576501729312</v>
       </c>
       <c r="R17">
-        <v>1126.868723508168</v>
+        <v>248.1885155638081</v>
       </c>
       <c r="S17">
-        <v>0.04815396119443772</v>
+        <v>0.0170981368477442</v>
       </c>
       <c r="T17">
-        <v>0.04815396119443772</v>
+        <v>0.01709813684774419</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H18">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J18">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N18">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P18">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q18">
-        <v>71.98167033647822</v>
+        <v>18.09550314033667</v>
       </c>
       <c r="R18">
-        <v>647.835033028304</v>
+        <v>162.85952826303</v>
       </c>
       <c r="S18">
-        <v>0.02768363553806284</v>
+        <v>0.01121967507188883</v>
       </c>
       <c r="T18">
-        <v>0.02768363553806284</v>
+        <v>0.01121967507188883</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.118461333333333</v>
+        <v>1.804372666666667</v>
       </c>
       <c r="H19">
-        <v>18.355384</v>
+        <v>5.413118000000001</v>
       </c>
       <c r="I19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="J19">
-        <v>0.4610940010702282</v>
+        <v>0.2102747243676212</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N19">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O19">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P19">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q19">
-        <v>366.9395854723023</v>
+        <v>108.0187745016605</v>
       </c>
       <c r="R19">
-        <v>3302.45626925072</v>
+        <v>972.1689705149441</v>
       </c>
       <c r="S19">
-        <v>0.1411223399126261</v>
+        <v>0.06697440475533042</v>
       </c>
       <c r="T19">
-        <v>0.1411223399126261</v>
+        <v>0.06697440475533042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1665,10 +1665,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J20">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.644991666666666</v>
+        <v>12.046506</v>
       </c>
       <c r="N20">
-        <v>22.934975</v>
+        <v>36.139518</v>
       </c>
       <c r="O20">
-        <v>0.03901494211481031</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="P20">
-        <v>0.0390149421148103</v>
+        <v>0.06409289449370618</v>
       </c>
       <c r="Q20">
-        <v>0.1888848091083333</v>
+        <v>0.2976330237420001</v>
       </c>
       <c r="R20">
-        <v>1.699963281975</v>
+        <v>2.678697213678</v>
       </c>
       <c r="S20">
-        <v>7.264374652031044E-05</v>
+        <v>0.000184540092151695</v>
       </c>
       <c r="T20">
-        <v>7.264374652031043E-05</v>
+        <v>0.000184540092151695</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1727,10 +1727,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J21">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,10 +1745,10 @@
         <v>112.478866</v>
       </c>
       <c r="O21">
-        <v>0.1913390551386913</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="P21">
-        <v>0.1913390551386912</v>
+        <v>0.199479586067244</v>
       </c>
       <c r="Q21">
         <v>0.9263384474206668</v>
@@ -1757,10 +1757,10 @@
         <v>8.337046026786</v>
       </c>
       <c r="S21">
-        <v>0.0003562631409275992</v>
+        <v>0.0005743535455220558</v>
       </c>
       <c r="T21">
-        <v>0.0003562631409275991</v>
+        <v>0.0005743535455220557</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1789,10 +1789,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J22">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>58.61130133333333</v>
+        <v>53.23753466666667</v>
       </c>
       <c r="N22">
-        <v>175.833904</v>
+        <v>159.712604</v>
       </c>
       <c r="O22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="P22">
-        <v>0.2991130178420126</v>
+        <v>0.2832479137515634</v>
       </c>
       <c r="Q22">
-        <v>1.448109422042667</v>
+        <v>1.315339769009334</v>
       </c>
       <c r="R22">
-        <v>13.032984798384</v>
+        <v>11.838057921084</v>
       </c>
       <c r="S22">
-        <v>0.0005569325256230975</v>
+        <v>0.0008155443207612002</v>
       </c>
       <c r="T22">
-        <v>0.0005569325256230973</v>
+        <v>0.0008155443207612001</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1851,10 +1851,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J23">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.463909</v>
+        <v>15.283152</v>
       </c>
       <c r="N23">
-        <v>61.391727</v>
+        <v>45.849456</v>
       </c>
       <c r="O23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="P23">
-        <v>0.1044341524345781</v>
+        <v>0.08131332426740788</v>
       </c>
       <c r="Q23">
-        <v>0.5056017996630001</v>
+        <v>0.3776008364640001</v>
       </c>
       <c r="R23">
-        <v>4.550416196967</v>
+        <v>3.398407528176</v>
       </c>
       <c r="S23">
-        <v>0.0001944508356617829</v>
+        <v>0.0002341221826850343</v>
       </c>
       <c r="T23">
-        <v>0.0001944508356617829</v>
+        <v>0.0002341221826850343</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1913,10 +1913,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J24">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.76466866666667</v>
+        <v>10.028695</v>
       </c>
       <c r="N24">
-        <v>35.294006</v>
+        <v>30.086085</v>
       </c>
       <c r="O24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="P24">
-        <v>0.06003902777699856</v>
+        <v>0.05335722163294142</v>
       </c>
       <c r="Q24">
-        <v>0.2906696687473334</v>
+        <v>0.247778967365</v>
       </c>
       <c r="R24">
-        <v>2.616027018726</v>
+        <v>2.230010706285</v>
       </c>
       <c r="S24">
-        <v>0.0001117894754866886</v>
+        <v>0.0001536293012647188</v>
       </c>
       <c r="T24">
-        <v>0.0001117894754866886</v>
+        <v>0.0001536293012647188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1975,10 +1975,10 @@
         <v>0.07412100000000001</v>
       </c>
       <c r="I25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091359</v>
       </c>
       <c r="J25">
-        <v>0.001861946797371626</v>
+        <v>0.002879259762091358</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.97252666666667</v>
+        <v>59.86500266666667</v>
       </c>
       <c r="N25">
-        <v>179.91758</v>
+        <v>179.595008</v>
       </c>
       <c r="O25">
-        <v>0.3060598046929092</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="P25">
-        <v>0.3060598046929091</v>
+        <v>0.3185090597871371</v>
       </c>
       <c r="Q25">
-        <v>1.481741216353334</v>
+        <v>1.479084620885334</v>
       </c>
       <c r="R25">
-        <v>13.33567094718</v>
+        <v>13.311761587968</v>
       </c>
       <c r="S25">
-        <v>0.0005698670731521476</v>
+        <v>0.0009170703197066546</v>
       </c>
       <c r="T25">
-        <v>0.0005698670731521475</v>
+        <v>0.0009170703197066545</v>
       </c>
     </row>
   </sheetData>
